--- a/Reference_annual_2022.xlsx
+++ b/Reference_annual_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69797AE1-BAA2-460D-A4EF-26C2F5DB99AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D6C13-E027-49E6-A556-3A78CC751AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1572" windowWidth="18444" windowHeight="11388" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,8 +1424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9330EB-2987-4E38-92E6-5B4CF5CB713B}">
   <dimension ref="A1:CX232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A211" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B222" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Reference_annual_2022.xlsx
+++ b/Reference_annual_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D6C13-E027-49E6-A556-3A78CC751AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F3D0F-DE7C-4C25-AAB6-B87C848EE976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t>Country</t>
   </si>
@@ -1017,10 +1017,6 @@
     <t>2020 - Total - annual</t>
   </si>
   <si>
-    <t xml:space="preserve">17 944
-</t>
-  </si>
-  <si>
     <t>Faroe Islands</t>
   </si>
   <si>
@@ -1038,12 +1034,27 @@
   <si>
     <t>United States of America</t>
   </si>
+  <si>
+    <t>2021 - Total - annual</t>
+  </si>
+  <si>
+    <t>2021 - IRENA - annual</t>
+  </si>
+  <si>
+    <t>2021 - ITC - annual</t>
+  </si>
+  <si>
+    <t>2021 - PVPS - annual</t>
+  </si>
+  <si>
+    <t>2021 - Other - annual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1074,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1100,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1108,6 +1125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,13 +1440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9330EB-2987-4E38-92E6-5B4CF5CB713B}">
-  <dimension ref="A1:CX232"/>
+  <dimension ref="A1:DC232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A231" sqref="A231"/>
+      <selection pane="bottomRight" activeCell="BA84" sqref="BA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,7 +1454,7 @@
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1743,8 +1761,23 @@
       <c r="CX1" t="s">
         <v>326</v>
       </c>
+      <c r="CY1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>335</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>336</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>337</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3284,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3592,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4208,7 +4241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4516,7 +4549,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4824,7 +4857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5132,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5440,7 +5473,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5748,7 +5781,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6056,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -22382,7 +22415,7 @@
     </row>
     <row r="69" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -25611,8 +25644,8 @@
       <c r="AX79">
         <v>7440</v>
       </c>
-      <c r="AY79" t="s">
-        <v>327</v>
+      <c r="AY79" s="3">
+        <v>17944</v>
       </c>
       <c r="AZ79">
         <v>7440</v>
@@ -28542,7 +28575,7 @@
     </row>
     <row r="89" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -33470,7 +33503,7 @@
     </row>
     <row r="105" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -57494,7 +57527,7 @@
     </row>
     <row r="183" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -69506,7 +69539,7 @@
     </row>
     <row r="222" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -69814,7 +69847,7 @@
     </row>
     <row r="223" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -72893,6 +72926,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reference_annual_2022.xlsx
+++ b/Reference_annual_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0F3D0F-DE7C-4C25-AAB6-B87C848EE976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F19E78-D221-4320-B3F9-A52F1E931082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="342">
   <si>
     <t>Country</t>
   </si>
@@ -1049,6 +1049,18 @@
   <si>
     <t>2021 - Other - annual</t>
   </si>
+  <si>
+    <t>2022 - ITC - annual</t>
+  </si>
+  <si>
+    <t>2022 - PVPS - annual</t>
+  </si>
+  <si>
+    <t>2022 - Other - annual</t>
+  </si>
+  <si>
+    <t>2022 - Total - annual</t>
+  </si>
 </sst>
 </file>
 
@@ -1440,13 +1452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9330EB-2987-4E38-92E6-5B4CF5CB713B}">
-  <dimension ref="A1:DC232"/>
+  <dimension ref="A1:DH232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA84" sqref="BA84"/>
+      <selection pane="bottomRight" activeCell="DC14" sqref="DC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1466,7 @@
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1776,8 +1788,23 @@
       <c r="DC1" t="s">
         <v>333</v>
       </c>
+      <c r="DD1" t="s">
+        <v>334</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>338</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>339</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>340</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2085,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2701,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3009,7 +3036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3317,7 +3344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3625,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4241,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4549,7 +4576,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4857,7 +4884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5165,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5473,7 +5500,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5781,7 +5808,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6089,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/Reference_annual_2022.xlsx
+++ b/Reference_annual_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F19E78-D221-4320-B3F9-A52F1E931082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D83796-3C94-43D9-B215-E6EE9F4A5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
+    <workbookView xWindow="30555" yWindow="870" windowWidth="17250" windowHeight="8955" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1137,7 +1137,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,10 +1454,10 @@
   <dimension ref="A1:DH232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CR209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DC14" sqref="DC14"/>
+      <selection pane="bottomRight" activeCell="CZ243" sqref="CZ243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5356,13 +5355,13 @@
         <v>848</v>
       </c>
       <c r="BC13">
-        <v>866</v>
+        <v>806</v>
       </c>
       <c r="BD13">
         <v>851</v>
       </c>
       <c r="BE13">
-        <v>866</v>
+        <v>806</v>
       </c>
       <c r="BF13">
         <v>1326</v>
@@ -5371,13 +5370,13 @@
         <v>1000</v>
       </c>
       <c r="BH13">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="BI13">
         <v>1067</v>
       </c>
       <c r="BJ13">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="BK13">
         <v>769</v>
@@ -5386,13 +5385,13 @@
         <v>820</v>
       </c>
       <c r="BM13">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="BN13">
         <v>821</v>
       </c>
       <c r="BO13">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="BP13">
         <v>719</v>
@@ -5401,13 +5400,13 @@
         <v>880</v>
       </c>
       <c r="BR13">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="BS13">
         <v>814</v>
       </c>
       <c r="BT13">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="BU13">
         <v>659</v>
@@ -5416,13 +5415,13 @@
         <v>940</v>
       </c>
       <c r="BW13">
-        <v>926</v>
+        <v>1018</v>
       </c>
       <c r="BX13">
         <v>873</v>
       </c>
       <c r="BY13">
-        <v>926</v>
+        <v>1018</v>
       </c>
       <c r="BZ13">
         <v>743</v>
@@ -5431,13 +5430,13 @@
         <v>880</v>
       </c>
       <c r="CB13">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="CC13">
         <v>881</v>
       </c>
       <c r="CD13">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="CE13">
         <v>666</v>
@@ -5446,13 +5445,13 @@
         <v>1340</v>
       </c>
       <c r="CG13">
-        <v>1270</v>
+        <v>1147</v>
       </c>
       <c r="CH13">
         <v>1494</v>
       </c>
       <c r="CI13">
-        <v>1270</v>
+        <v>1147</v>
       </c>
       <c r="CJ13">
         <v>1273</v>
@@ -5461,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="CL13">
-        <v>4408</v>
+        <v>4454</v>
       </c>
       <c r="CM13">
         <v>4211</v>
       </c>
       <c r="CN13">
-        <v>4408</v>
+        <v>4454</v>
       </c>
       <c r="CO13">
         <v>4625</v>
@@ -5476,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="CQ13">
-        <v>4734</v>
+        <v>4813</v>
       </c>
       <c r="CR13">
         <v>4395</v>
       </c>
       <c r="CS13">
-        <v>4734</v>
+        <v>4813</v>
       </c>
       <c r="CT13">
         <v>4375</v>
@@ -5491,13 +5490,19 @@
         <v>0</v>
       </c>
       <c r="CV13">
-        <v>4503</v>
+        <v>4692</v>
       </c>
       <c r="CW13">
         <v>5076</v>
       </c>
       <c r="CX13">
-        <v>4503</v>
+        <v>4692</v>
+      </c>
+      <c r="DA13">
+        <v>4944</v>
+      </c>
+      <c r="DC13">
+        <v>4944</v>
       </c>
     </row>
     <row r="14" spans="1:112" x14ac:dyDescent="0.3">
@@ -5807,6 +5812,12 @@
       <c r="CX14">
         <v>341</v>
       </c>
+      <c r="DA14">
+        <v>739</v>
+      </c>
+      <c r="DC14">
+        <v>739</v>
+      </c>
     </row>
     <row r="15" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6424,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6732,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7040,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7348,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7656,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7790,13 +7801,13 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AT21">
         <v>437</v>
       </c>
       <c r="AU21">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AV21">
         <v>621</v>
@@ -7805,13 +7816,13 @@
         <v>796</v>
       </c>
       <c r="AX21">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="AY21">
         <v>1069</v>
       </c>
       <c r="AZ21">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="BA21">
         <v>972</v>
@@ -7820,13 +7831,13 @@
         <v>1234</v>
       </c>
       <c r="BC21">
-        <v>939</v>
+        <v>1068</v>
       </c>
       <c r="BD21">
         <v>694</v>
       </c>
       <c r="BE21">
-        <v>939</v>
+        <v>1068</v>
       </c>
       <c r="BF21">
         <v>668</v>
@@ -7835,13 +7846,13 @@
         <v>590</v>
       </c>
       <c r="BH21">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="BI21">
         <v>269</v>
       </c>
       <c r="BJ21">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="BK21">
         <v>255</v>
@@ -7850,13 +7861,13 @@
         <v>370</v>
       </c>
       <c r="BM21">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="BN21">
         <v>106</v>
       </c>
       <c r="BO21">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="BP21">
         <v>113</v>
@@ -7865,13 +7876,13 @@
         <v>130</v>
       </c>
       <c r="BR21">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BS21">
         <v>106</v>
       </c>
       <c r="BT21">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="BU21">
         <v>117</v>
@@ -7880,13 +7891,13 @@
         <v>100</v>
       </c>
       <c r="BW21">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="BX21">
         <v>106</v>
       </c>
       <c r="BY21">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="BZ21">
         <v>197</v>
@@ -7895,13 +7906,13 @@
         <v>150</v>
       </c>
       <c r="CB21">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="CC21">
         <v>110</v>
       </c>
       <c r="CD21">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="CE21">
         <v>292</v>
@@ -7910,13 +7921,13 @@
         <v>350</v>
       </c>
       <c r="CG21">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="CH21">
         <v>510</v>
       </c>
       <c r="CI21">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="CJ21">
         <v>379</v>
@@ -7925,13 +7936,13 @@
         <v>0</v>
       </c>
       <c r="CL21">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="CM21">
         <v>445</v>
       </c>
       <c r="CN21">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="CO21">
         <v>637</v>
@@ -7955,16 +7966,22 @@
         <v>0</v>
       </c>
       <c r="CV21">
-        <v>1048</v>
+        <v>1146</v>
       </c>
       <c r="CW21">
         <v>1139</v>
       </c>
       <c r="CX21">
-        <v>1048</v>
+        <v>1146</v>
+      </c>
+      <c r="DA21">
+        <v>850</v>
+      </c>
+      <c r="DC21">
+        <v>850</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -8272,7 +8289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -8580,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -8888,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -9196,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9504,7 +9521,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -9812,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -10120,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -10428,7 +10445,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -10736,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -11044,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -11352,7 +11369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -11660,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -11968,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -12276,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -12584,7 +12601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -12892,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -13161,13 +13178,13 @@
         <v>0</v>
       </c>
       <c r="CL38">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="CM38">
         <v>0</v>
       </c>
       <c r="CN38">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="CO38">
         <v>210</v>
@@ -13176,13 +13193,13 @@
         <v>0</v>
       </c>
       <c r="CQ38">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="CR38">
         <v>0</v>
       </c>
       <c r="CS38">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="CT38">
         <v>15</v>
@@ -13191,16 +13208,22 @@
         <v>0</v>
       </c>
       <c r="CV38">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="CW38">
         <v>0</v>
       </c>
       <c r="CX38">
-        <v>200</v>
+        <v>325</v>
+      </c>
+      <c r="DA38">
+        <v>421</v>
+      </c>
+      <c r="DC38">
+        <v>421</v>
       </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -13508,7 +13531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -13816,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -14124,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -14432,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -14740,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -15047,8 +15070,14 @@
       <c r="CX44">
         <v>790</v>
       </c>
+      <c r="DA44">
+        <v>2681</v>
+      </c>
+      <c r="DC44">
+        <v>2681</v>
+      </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -15355,8 +15384,14 @@
       <c r="CX45">
         <v>48200</v>
       </c>
+      <c r="DA45">
+        <v>54880</v>
+      </c>
+      <c r="DC45">
+        <v>54880</v>
+      </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -15664,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -15972,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -16280,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -16588,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -16896,7 +16931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -17204,7 +17239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -17512,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -17820,7 +17855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -18128,7 +18163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -18436,7 +18471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -18744,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -19043,16 +19078,22 @@
         <v>0</v>
       </c>
       <c r="CV57">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CW57">
         <v>234</v>
       </c>
       <c r="CX57">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="DA57">
+        <v>718</v>
+      </c>
+      <c r="DC57">
+        <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -19360,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -19668,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -19976,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -20284,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -20592,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -20900,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -21208,7 +21249,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -21516,7 +21557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -21824,7 +21865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -22132,7 +22173,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -22440,7 +22481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>327</v>
       </c>
@@ -22748,7 +22789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -23056,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -23364,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -23633,13 +23674,13 @@
         <v>0</v>
       </c>
       <c r="CL72">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CM72">
         <v>53</v>
       </c>
       <c r="CN72">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CO72">
         <v>82</v>
@@ -23648,13 +23689,13 @@
         <v>0</v>
       </c>
       <c r="CQ72">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CR72">
         <v>77</v>
       </c>
       <c r="CS72">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CT72">
         <v>169</v>
@@ -23663,16 +23704,22 @@
         <v>0</v>
       </c>
       <c r="CV72">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CW72">
         <v>91</v>
       </c>
       <c r="CX72">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="DA72">
+        <v>100</v>
+      </c>
+      <c r="DC72">
+        <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -23791,13 +23838,13 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AO73">
         <v>54</v>
       </c>
       <c r="AP73">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AQ73">
         <v>197</v>
@@ -23806,13 +23853,13 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="AT73">
         <v>262</v>
       </c>
       <c r="AU73">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="AV73">
         <v>767</v>
@@ -23821,13 +23868,13 @@
         <v>1050</v>
       </c>
       <c r="AX73">
-        <v>838</v>
+        <v>1006</v>
       </c>
       <c r="AY73">
         <v>842</v>
       </c>
       <c r="AZ73">
-        <v>838</v>
+        <v>1006</v>
       </c>
       <c r="BA73">
         <v>1960</v>
@@ -23836,13 +23883,13 @@
         <v>1800</v>
       </c>
       <c r="BC73">
-        <v>1764</v>
+        <v>2116</v>
       </c>
       <c r="BD73">
         <v>1765</v>
       </c>
       <c r="BE73">
-        <v>1764</v>
+        <v>2116</v>
       </c>
       <c r="BF73">
         <v>1355</v>
@@ -23851,13 +23898,13 @@
         <v>1140</v>
       </c>
       <c r="BH73">
-        <v>1120</v>
+        <v>1344</v>
       </c>
       <c r="BI73">
         <v>1120</v>
       </c>
       <c r="BJ73">
-        <v>1120</v>
+        <v>1344</v>
       </c>
       <c r="BK73">
         <v>918</v>
@@ -23866,13 +23913,13 @@
         <v>700</v>
       </c>
       <c r="BM73">
-        <v>654</v>
+        <v>786</v>
       </c>
       <c r="BN73">
         <v>656</v>
       </c>
       <c r="BO73">
-        <v>654</v>
+        <v>786</v>
       </c>
       <c r="BP73">
         <v>757</v>
@@ -23881,13 +23928,13 @@
         <v>930</v>
       </c>
       <c r="BR73">
-        <v>954</v>
+        <v>1145</v>
       </c>
       <c r="BS73">
         <v>955</v>
       </c>
       <c r="BT73">
-        <v>954</v>
+        <v>1145</v>
       </c>
       <c r="BU73">
         <v>1104</v>
@@ -23896,13 +23943,13 @@
         <v>920</v>
       </c>
       <c r="BW73">
-        <v>904</v>
+        <v>1083</v>
       </c>
       <c r="BX73">
         <v>895</v>
       </c>
       <c r="BY73">
-        <v>904</v>
+        <v>1083</v>
       </c>
       <c r="BZ73">
         <v>564</v>
@@ -23911,13 +23958,13 @@
         <v>580</v>
       </c>
       <c r="CB73">
-        <v>596</v>
+        <v>716</v>
       </c>
       <c r="CC73">
         <v>564</v>
       </c>
       <c r="CD73">
-        <v>596</v>
+        <v>716</v>
       </c>
       <c r="CE73">
         <v>908</v>
@@ -23926,13 +23973,13 @@
         <v>930</v>
       </c>
       <c r="CG73">
-        <v>898</v>
+        <v>1077</v>
       </c>
       <c r="CH73">
         <v>908</v>
       </c>
       <c r="CI73">
-        <v>898</v>
+        <v>1077</v>
       </c>
       <c r="CJ73">
         <v>1081</v>
@@ -23941,13 +23988,13 @@
         <v>0</v>
       </c>
       <c r="CL73">
-        <v>869</v>
+        <v>1042</v>
       </c>
       <c r="CM73">
         <v>862</v>
       </c>
       <c r="CN73">
-        <v>869</v>
+        <v>1042</v>
       </c>
       <c r="CO73">
         <v>1104</v>
@@ -23956,13 +24003,13 @@
         <v>0</v>
       </c>
       <c r="CQ73">
-        <v>979</v>
+        <v>1175</v>
       </c>
       <c r="CR73">
         <v>1021</v>
       </c>
       <c r="CS73">
-        <v>979</v>
+        <v>1175</v>
       </c>
       <c r="CT73">
         <v>929</v>
@@ -23971,16 +24018,22 @@
         <v>0</v>
       </c>
       <c r="CV73">
-        <v>973</v>
+        <v>1168</v>
       </c>
       <c r="CW73">
         <v>1037</v>
       </c>
       <c r="CX73">
-        <v>973</v>
+        <v>1168</v>
+      </c>
+      <c r="DA73">
+        <v>3350</v>
+      </c>
+      <c r="DC73">
+        <v>3350</v>
       </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -24288,7 +24341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -24596,7 +24649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -24904,7 +24957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -25212,7 +25265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -25520,7 +25573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -25671,7 +25724,7 @@
       <c r="AX79">
         <v>7440</v>
       </c>
-      <c r="AY79" s="3">
+      <c r="AY79">
         <v>17944</v>
       </c>
       <c r="AZ79">
@@ -25827,8 +25880,14 @@
       <c r="CX79">
         <v>4885</v>
       </c>
+      <c r="DA79">
+        <v>5760</v>
+      </c>
+      <c r="DC79">
+        <v>5760</v>
+      </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -31064,7 +31123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -31372,7 +31431,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -31680,7 +31739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -31988,7 +32047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -32296,7 +32355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -32604,7 +32663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -32912,7 +32971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -33211,16 +33270,22 @@
         <v>0</v>
       </c>
       <c r="CV103">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="CW103">
         <v>0</v>
       </c>
       <c r="CX103">
-        <v>590</v>
+        <v>454</v>
+      </c>
+      <c r="DA103">
+        <v>935</v>
+      </c>
+      <c r="DC103">
+        <v>935</v>
       </c>
     </row>
-    <row r="104" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -33527,8 +33592,14 @@
       <c r="CX104">
         <v>785</v>
       </c>
+      <c r="DA104">
+        <v>944</v>
+      </c>
+      <c r="DC104">
+        <v>944</v>
+      </c>
     </row>
-    <row r="105" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>329</v>
       </c>
@@ -33836,7 +33907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -34144,7 +34215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -34451,8 +34522,14 @@
       <c r="CX107">
         <v>8675</v>
       </c>
+      <c r="DA107">
+        <v>6545</v>
+      </c>
+      <c r="DC107">
+        <v>6545</v>
+      </c>
     </row>
-    <row r="108" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -34760,7 +34837,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="109" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -35068,7 +35145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -35376,7 +35453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -35684,7 +35761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -35992,7 +36069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -36300,7 +36377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -36608,7 +36685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -36916,7 +36993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -37224,7 +37301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -37532,7 +37609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -37840,7 +37917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -38148,7 +38225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -38456,7 +38533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -38764,7 +38841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -39072,7 +39149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -39380,7 +39457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -39688,7 +39765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -39996,7 +40073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -40304,7 +40381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -40603,16 +40680,22 @@
         <v>0</v>
       </c>
       <c r="CV127">
-        <v>883</v>
+        <v>543</v>
       </c>
       <c r="CW127">
         <v>0</v>
       </c>
       <c r="CX127">
-        <v>883</v>
+        <v>543</v>
+      </c>
+      <c r="DA127">
+        <v>370</v>
+      </c>
+      <c r="DC127">
+        <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -40920,7 +41003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -41228,7 +41311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -41536,7 +41619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -41844,7 +41927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -42152,7 +42235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -42460,7 +42543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -42768,7 +42851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -43076,7 +43159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -43383,8 +43466,14 @@
       <c r="CX136">
         <v>1573</v>
       </c>
+      <c r="DA136">
+        <v>1625</v>
+      </c>
+      <c r="DC136">
+        <v>1625</v>
+      </c>
     </row>
-    <row r="137" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -43692,7 +43781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -44000,7 +44089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -44308,7 +44397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -44616,7 +44705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -44924,7 +45013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -45232,7 +45321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -45539,8 +45628,14 @@
       <c r="CX143">
         <v>0</v>
       </c>
+      <c r="DA143">
+        <v>493</v>
+      </c>
+      <c r="DC143">
+        <v>493</v>
+      </c>
     </row>
-    <row r="144" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -45848,7 +45943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -46156,7 +46251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -46464,7 +46559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -46772,7 +46867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -47080,7 +47175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -47229,13 +47324,13 @@
         <v>86.1</v>
       </c>
       <c r="AX149">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AY149">
         <v>9</v>
       </c>
       <c r="AZ149">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="BA149">
         <v>59</v>
@@ -47259,13 +47354,13 @@
         <v>123</v>
       </c>
       <c r="BH149">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="BI149">
         <v>39</v>
       </c>
       <c r="BJ149">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="BK149">
         <v>363</v>
@@ -47274,13 +47369,13 @@
         <v>433</v>
       </c>
       <c r="BM149">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="BN149">
         <v>363</v>
       </c>
       <c r="BO149">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="BP149">
         <v>357</v>
@@ -47289,13 +47384,13 @@
         <v>355</v>
       </c>
       <c r="BR149">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="BS149">
         <v>358</v>
       </c>
       <c r="BT149">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="BU149">
         <v>519</v>
@@ -47304,13 +47399,13 @@
         <v>390</v>
       </c>
       <c r="BW149">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="BX149">
         <v>519</v>
       </c>
       <c r="BY149">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="BZ149">
         <v>609</v>
@@ -47319,13 +47414,13 @@
         <v>560</v>
       </c>
       <c r="CB149">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="CC149">
         <v>609</v>
       </c>
       <c r="CD149">
-        <v>609</v>
+        <v>525</v>
       </c>
       <c r="CE149">
         <v>776</v>
@@ -47334,13 +47429,13 @@
         <v>760</v>
       </c>
       <c r="CG149">
-        <v>766</v>
+        <v>853</v>
       </c>
       <c r="CH149">
         <v>776</v>
       </c>
       <c r="CI149">
-        <v>766</v>
+        <v>853</v>
       </c>
       <c r="CJ149">
         <v>1697</v>
@@ -47349,13 +47444,13 @@
         <v>0</v>
       </c>
       <c r="CL149">
-        <v>1621</v>
+        <v>1695</v>
       </c>
       <c r="CM149">
         <v>1698</v>
       </c>
       <c r="CN149">
-        <v>1621</v>
+        <v>1695</v>
       </c>
       <c r="CO149">
         <v>2569</v>
@@ -47364,13 +47459,13 @@
         <v>0</v>
       </c>
       <c r="CQ149">
-        <v>2352</v>
+        <v>1616</v>
       </c>
       <c r="CR149">
         <v>2745</v>
       </c>
       <c r="CS149">
-        <v>2352</v>
+        <v>2616</v>
       </c>
       <c r="CT149">
         <v>3036</v>
@@ -47379,16 +47474,22 @@
         <v>0</v>
       </c>
       <c r="CV149">
-        <v>3036</v>
+        <v>3492</v>
       </c>
       <c r="CW149">
         <v>3136</v>
       </c>
       <c r="CX149">
-        <v>3036</v>
+        <v>3492</v>
+      </c>
+      <c r="DA149">
+        <v>3632</v>
+      </c>
+      <c r="DC149">
+        <v>3632</v>
       </c>
     </row>
-    <row r="150" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -47696,7 +47797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -48004,7 +48105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -48312,7 +48413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -48620,7 +48721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -48928,7 +49029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -49236,7 +49337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -49544,7 +49645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -49852,7 +49953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -50159,8 +50260,14 @@
       <c r="CX158">
         <v>40</v>
       </c>
+      <c r="DA158">
+        <v>45</v>
+      </c>
+      <c r="DC158">
+        <v>45</v>
+      </c>
     </row>
-    <row r="159" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -50468,7 +50575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -50776,7 +50883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -51084,7 +51191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -51392,7 +51499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -51700,7 +51807,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -52008,7 +52115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -52316,7 +52423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -52624,7 +52731,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -52932,7 +53039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -53240,7 +53347,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="169" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -53547,8 +53654,14 @@
       <c r="CX169">
         <v>170</v>
       </c>
+      <c r="DA169">
+        <v>571</v>
+      </c>
+      <c r="DC169">
+        <v>571</v>
+      </c>
     </row>
-    <row r="170" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -53856,7 +53969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -54164,7 +54277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -54472,7 +54585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -54780,7 +54893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -55088,7 +55201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -55396,7 +55509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -60632,7 +60745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -60940,7 +61053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -61247,8 +61360,14 @@
       <c r="CX194">
         <v>1300</v>
       </c>
+      <c r="DA194">
+        <v>458</v>
+      </c>
+      <c r="DC194">
+        <v>458</v>
+      </c>
     </row>
-    <row r="195" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>190</v>
       </c>
@@ -61517,13 +61636,13 @@
         <v>0</v>
       </c>
       <c r="CL195">
-        <v>2144</v>
+        <v>2265</v>
       </c>
       <c r="CM195">
         <v>2027</v>
       </c>
       <c r="CN195">
-        <v>2144</v>
+        <v>2265</v>
       </c>
       <c r="CO195">
         <v>3375</v>
@@ -61532,13 +61651,13 @@
         <v>0</v>
       </c>
       <c r="CQ195">
-        <v>3789</v>
+        <v>4566</v>
       </c>
       <c r="CR195">
         <v>3130</v>
       </c>
       <c r="CS195">
-        <v>3789</v>
+        <v>4566</v>
       </c>
       <c r="CT195">
         <v>4070</v>
@@ -61547,16 +61666,22 @@
         <v>0</v>
       </c>
       <c r="CV195">
-        <v>4120</v>
+        <v>4658</v>
       </c>
       <c r="CW195">
         <v>4105</v>
       </c>
       <c r="CX195">
-        <v>4120</v>
+        <v>4658</v>
+      </c>
+      <c r="DA195">
+        <v>4225</v>
+      </c>
+      <c r="DC195">
+        <v>4225</v>
       </c>
     </row>
-    <row r="196" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>191</v>
       </c>
@@ -61864,7 +61989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -62171,8 +62296,14 @@
       <c r="CX197">
         <v>3528</v>
       </c>
+      <c r="DA197">
+        <v>4900</v>
+      </c>
+      <c r="DC197">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="198" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>193</v>
       </c>
@@ -62480,7 +62611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>194</v>
       </c>
@@ -62788,7 +62919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>195</v>
       </c>
@@ -63096,7 +63227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>196</v>
       </c>
@@ -63404,7 +63535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>197</v>
       </c>
@@ -63703,16 +63834,22 @@
         <v>0</v>
       </c>
       <c r="CV202">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="CW202">
         <v>392</v>
       </c>
       <c r="CX202">
-        <v>506</v>
+        <v>480</v>
+      </c>
+      <c r="DA202">
+        <v>599</v>
+      </c>
+      <c r="DC202">
+        <v>599</v>
       </c>
     </row>
-    <row r="203" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>198</v>
       </c>
@@ -64019,8 +64156,14 @@
       <c r="CX203">
         <v>475</v>
       </c>
+      <c r="DA203">
+        <v>683</v>
+      </c>
+      <c r="DC203">
+        <v>683</v>
+      </c>
     </row>
-    <row r="204" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>199</v>
       </c>
@@ -64328,7 +64471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>200</v>
       </c>
@@ -64636,7 +64779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>201</v>
       </c>
@@ -64944,7 +65087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>202</v>
       </c>
@@ -65252,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>203</v>
       </c>
@@ -65559,8 +65702,14 @@
       <c r="CX208">
         <v>49</v>
       </c>
+      <c r="DA208">
+        <v>500</v>
+      </c>
+      <c r="DC208">
+        <v>500</v>
+      </c>
     </row>
-    <row r="209" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>204</v>
       </c>
@@ -65868,7 +66017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>205</v>
       </c>
@@ -66176,7 +66325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>206</v>
       </c>
@@ -66484,7 +66633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>207</v>
       </c>
@@ -66792,7 +66941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>208</v>
       </c>
@@ -67100,7 +67249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="214" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>209</v>
       </c>
@@ -67369,13 +67518,13 @@
         <v>0</v>
       </c>
       <c r="CL214">
-        <v>2943</v>
+        <v>3133</v>
       </c>
       <c r="CM214">
         <v>0</v>
       </c>
       <c r="CN214">
-        <v>2943</v>
+        <v>3133</v>
       </c>
       <c r="CO214">
         <v>932</v>
@@ -67384,13 +67533,13 @@
         <v>0</v>
       </c>
       <c r="CQ214">
-        <v>1398</v>
+        <v>1212</v>
       </c>
       <c r="CR214">
         <v>0</v>
       </c>
       <c r="CS214">
-        <v>1398</v>
+        <v>1212</v>
       </c>
       <c r="CT214">
         <v>672</v>
@@ -67399,16 +67548,22 @@
         <v>0</v>
       </c>
       <c r="CV214">
-        <v>957</v>
+        <v>874</v>
       </c>
       <c r="CW214">
         <v>0</v>
       </c>
       <c r="CX214">
-        <v>957</v>
+        <v>874</v>
+      </c>
+      <c r="DA214">
+        <v>1492</v>
+      </c>
+      <c r="DC214">
+        <v>1492</v>
       </c>
     </row>
-    <row r="215" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>210</v>
       </c>
@@ -67716,7 +67871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>211</v>
       </c>
@@ -68024,7 +68179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>212</v>
       </c>
@@ -68332,7 +68487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>213</v>
       </c>
@@ -68640,7 +68795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -68948,7 +69103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>215</v>
       </c>
@@ -69256,7 +69411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>216</v>
       </c>
@@ -69564,7 +69719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>331</v>
       </c>
@@ -69872,7 +70027,7 @@
         <v>171.79999999999927</v>
       </c>
     </row>
-    <row r="223" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>332</v>
       </c>
@@ -70156,13 +70311,13 @@
         <v>0</v>
       </c>
       <c r="CQ223">
-        <v>13272</v>
+        <v>13776</v>
       </c>
       <c r="CR223">
         <v>13480</v>
       </c>
       <c r="CS223">
-        <v>13272</v>
+        <v>13776</v>
       </c>
       <c r="CT223">
         <v>14890</v>
@@ -70171,16 +70326,22 @@
         <v>0</v>
       </c>
       <c r="CV223">
-        <v>19725</v>
+        <v>19857</v>
       </c>
       <c r="CW223">
         <v>19220</v>
       </c>
       <c r="CX223">
-        <v>19725</v>
+        <v>19857</v>
+      </c>
+      <c r="DA223">
+        <v>26873</v>
+      </c>
+      <c r="DC223">
+        <v>26873</v>
       </c>
     </row>
-    <row r="224" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>217</v>
       </c>

--- a/Reference_annual_2022.xlsx
+++ b/Reference_annual_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D83796-3C94-43D9-B215-E6EE9F4A5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAE120A-30A3-4853-ACD4-B7810B44FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="870" windowWidth="17250" windowHeight="8955" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{897FD0AD-667B-405B-B21E-969CA7E21E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1454,10 +1454,10 @@
   <dimension ref="A1:DH232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CR209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CZ243" sqref="CZ243"/>
+      <selection pane="bottomRight" activeCell="CY10" sqref="CY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2110,6 +2110,9 @@
       <c r="CX2">
         <v>0</v>
       </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2418,6 +2421,9 @@
       <c r="CX3">
         <v>17</v>
       </c>
+      <c r="CY3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2726,6 +2732,9 @@
       <c r="CX4">
         <v>0</v>
       </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3034,6 +3043,9 @@
       <c r="CX5">
         <v>5</v>
       </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3342,6 +3354,9 @@
       <c r="CX6">
         <v>3</v>
       </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3650,6 +3665,9 @@
       <c r="CX7">
         <v>0</v>
       </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3958,6 +3976,9 @@
       <c r="CX8">
         <v>0</v>
       </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4266,6 +4287,9 @@
       <c r="CX9">
         <v>8</v>
       </c>
+      <c r="CY9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4574,6 +4598,9 @@
       <c r="CX10">
         <v>764</v>
       </c>
+      <c r="CY10">
+        <v>307</v>
+      </c>
     </row>
     <row r="11" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4882,6 +4909,9 @@
       <c r="CX11">
         <v>95</v>
       </c>
+      <c r="CY11">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5190,6 +5220,9 @@
       <c r="CX12">
         <v>0</v>
       </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5498,6 +5531,9 @@
       <c r="CX13">
         <v>4692</v>
       </c>
+      <c r="CY13">
+        <v>1449</v>
+      </c>
       <c r="DA13">
         <v>4944</v>
       </c>
@@ -5812,6 +5848,9 @@
       <c r="CX14">
         <v>341</v>
       </c>
+      <c r="CY14">
+        <v>472</v>
+      </c>
       <c r="DA14">
         <v>739</v>
       </c>
@@ -6126,6 +6165,9 @@
       <c r="CX15">
         <v>0</v>
       </c>
+      <c r="CY15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6434,6 +6476,9 @@
       <c r="CX16">
         <v>2</v>
       </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6742,6 +6787,9 @@
       <c r="CX17">
         <v>0</v>
       </c>
+      <c r="CY17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -7050,6 +7098,9 @@
       <c r="CX18">
         <v>0</v>
       </c>
+      <c r="CY18">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -7358,6 +7409,9 @@
       <c r="CX19">
         <v>0</v>
       </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7666,6 +7720,9 @@
       <c r="CX20">
         <v>0</v>
       </c>
+      <c r="CY20">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -7974,6 +8031,9 @@
       <c r="CX21">
         <v>1146</v>
       </c>
+      <c r="CY21">
+        <v>939</v>
+      </c>
       <c r="DA21">
         <v>850</v>
       </c>
@@ -8288,6 +8348,9 @@
       <c r="CX22">
         <v>7</v>
       </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8596,6 +8659,9 @@
       <c r="CX23">
         <v>0</v>
       </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8904,6 +8970,9 @@
       <c r="CX24">
         <v>0</v>
       </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -9212,6 +9281,9 @@
       <c r="CX25">
         <v>0</v>
       </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -9520,6 +9592,9 @@
       <c r="CX26">
         <v>120</v>
       </c>
+      <c r="CY26">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -9828,6 +9903,9 @@
       <c r="CX27">
         <v>0</v>
       </c>
+      <c r="CY27">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -10136,6 +10214,9 @@
       <c r="CX28">
         <v>0</v>
       </c>
+      <c r="CY28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -10444,6 +10525,9 @@
       <c r="CX29">
         <v>3153</v>
       </c>
+      <c r="CY29">
+        <v>5174</v>
+      </c>
     </row>
     <row r="30" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -10752,6 +10836,9 @@
       <c r="CX30">
         <v>0</v>
       </c>
+      <c r="CY30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -11060,6 +11147,9 @@
       <c r="CX31">
         <v>0</v>
       </c>
+      <c r="CY31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -11368,6 +11458,9 @@
       <c r="CX32">
         <v>120</v>
       </c>
+      <c r="CY32">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -11676,6 +11769,9 @@
       <c r="CX33">
         <v>0</v>
       </c>
+      <c r="CY33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -11984,6 +12080,9 @@
       <c r="CX34">
         <v>0</v>
       </c>
+      <c r="CY34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -12292,6 +12391,9 @@
       <c r="CX35">
         <v>0</v>
       </c>
+      <c r="CY35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -12600,6 +12702,9 @@
       <c r="CX36">
         <v>109</v>
       </c>
+      <c r="CY36">
+        <v>220</v>
+      </c>
     </row>
     <row r="37" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -12908,6 +13013,9 @@
       <c r="CX37">
         <v>0</v>
       </c>
+      <c r="CY37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -13216,6 +13324,9 @@
       <c r="CX38">
         <v>325</v>
       </c>
+      <c r="CY38">
+        <v>305</v>
+      </c>
       <c r="DA38">
         <v>421</v>
       </c>
@@ -13530,6 +13641,9 @@
       <c r="CX39">
         <v>7</v>
       </c>
+      <c r="CY39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -13838,6 +13952,9 @@
       <c r="CX40">
         <v>0</v>
       </c>
+      <c r="CY40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -14146,6 +14263,9 @@
       <c r="CX41">
         <v>0</v>
       </c>
+      <c r="CY41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -14454,6 +14574,9 @@
       <c r="CX42">
         <v>0</v>
       </c>
+      <c r="CY42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -14762,6 +14885,9 @@
       <c r="CX43">
         <v>0</v>
       </c>
+      <c r="CY43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -15070,6 +15196,9 @@
       <c r="CX44">
         <v>790</v>
       </c>
+      <c r="CY44">
+        <v>1254</v>
+      </c>
       <c r="DA44">
         <v>2681</v>
       </c>
@@ -15384,6 +15513,9 @@
       <c r="CX45">
         <v>48200</v>
       </c>
+      <c r="CY45">
+        <v>52569</v>
+      </c>
       <c r="DA45">
         <v>54880</v>
       </c>
@@ -15698,6 +15830,9 @@
       <c r="CX46">
         <v>0</v>
       </c>
+      <c r="CY46">
+        <v>77</v>
+      </c>
     </row>
     <row r="47" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -16006,6 +16141,9 @@
       <c r="CX47">
         <v>0</v>
       </c>
+      <c r="CY47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -16314,6 +16452,9 @@
       <c r="CX48">
         <v>0</v>
       </c>
+      <c r="CY48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -16622,6 +16763,9 @@
       <c r="CX49">
         <v>0</v>
       </c>
+      <c r="CY49">
+        <v>-2</v>
+      </c>
     </row>
     <row r="50" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -16930,6 +17074,9 @@
       <c r="CX50">
         <v>9</v>
       </c>
+      <c r="CY50">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -17238,6 +17385,9 @@
       <c r="CX51">
         <v>27</v>
       </c>
+      <c r="CY51">
+        <v>24</v>
+      </c>
     </row>
     <row r="52" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -17546,6 +17696,9 @@
       <c r="CX52">
         <v>0</v>
       </c>
+      <c r="CY52">
+        <v>83</v>
+      </c>
     </row>
     <row r="53" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -17854,6 +18007,9 @@
       <c r="CX53">
         <v>12</v>
       </c>
+      <c r="CY53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -18162,6 +18318,9 @@
       <c r="CX54">
         <v>50</v>
       </c>
+      <c r="CY54">
+        <v>116</v>
+      </c>
     </row>
     <row r="55" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -18470,6 +18629,9 @@
       <c r="CX55">
         <v>51</v>
       </c>
+      <c r="CY55">
+        <v>46</v>
+      </c>
     </row>
     <row r="56" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -18778,6 +18940,9 @@
       <c r="CX56">
         <v>0</v>
       </c>
+      <c r="CY56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -19086,6 +19251,9 @@
       <c r="CX57">
         <v>264</v>
       </c>
+      <c r="CY57">
+        <v>240</v>
+      </c>
       <c r="DA57">
         <v>718</v>
       </c>
@@ -19400,6 +19568,9 @@
       <c r="CX58">
         <v>0</v>
       </c>
+      <c r="CY58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -19708,6 +19879,9 @@
       <c r="CX59">
         <v>0</v>
       </c>
+      <c r="CY59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -20016,6 +20190,9 @@
       <c r="CX60">
         <v>0</v>
       </c>
+      <c r="CY60">
+        <v>120</v>
+      </c>
     </row>
     <row r="61" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -20324,6 +20501,9 @@
       <c r="CX61">
         <v>0</v>
       </c>
+      <c r="CY61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -20632,6 +20812,9 @@
       <c r="CX62">
         <v>0</v>
       </c>
+      <c r="CY62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -20940,6 +21123,9 @@
       <c r="CX63">
         <v>0</v>
       </c>
+      <c r="CY63">
+        <v>-18</v>
+      </c>
     </row>
     <row r="64" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -21248,6 +21434,9 @@
       <c r="CX64">
         <v>429</v>
       </c>
+      <c r="CY64">
+        <v>49</v>
+      </c>
     </row>
     <row r="65" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -21556,6 +21745,9 @@
       <c r="CX65">
         <v>0</v>
       </c>
+      <c r="CY65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -21864,6 +22056,9 @@
       <c r="CX66">
         <v>2</v>
       </c>
+      <c r="CY66">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -22172,6 +22367,9 @@
       <c r="CX67">
         <v>155</v>
       </c>
+      <c r="CY67">
+        <v>284</v>
+      </c>
     </row>
     <row r="68" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -22480,6 +22678,9 @@
       <c r="CX68">
         <v>0</v>
       </c>
+      <c r="CY68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -22788,6 +22989,9 @@
       <c r="CX69">
         <v>0</v>
       </c>
+      <c r="CY69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -23096,6 +23300,9 @@
       <c r="CX70">
         <v>0</v>
       </c>
+      <c r="CY70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -23404,6 +23611,9 @@
       <c r="CX71">
         <v>0</v>
       </c>
+      <c r="CY71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -23712,6 +23922,9 @@
       <c r="CX72">
         <v>98</v>
       </c>
+      <c r="CY72">
+        <v>13</v>
+      </c>
       <c r="DA72">
         <v>100</v>
       </c>
@@ -24026,6 +24239,9 @@
       <c r="CX73">
         <v>1168</v>
       </c>
+      <c r="CY73">
+        <v>2985</v>
+      </c>
       <c r="DA73">
         <v>3350</v>
       </c>
@@ -24340,6 +24556,9 @@
       <c r="CX74">
         <v>55</v>
       </c>
+      <c r="CY74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -24648,6 +24867,9 @@
       <c r="CX75">
         <v>0</v>
       </c>
+      <c r="CY75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -24956,6 +25178,9 @@
       <c r="CX76">
         <v>0</v>
       </c>
+      <c r="CY76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -25264,6 +25489,9 @@
       <c r="CX77">
         <v>0</v>
       </c>
+      <c r="CY77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -25572,6 +25800,9 @@
       <c r="CX78">
         <v>1</v>
       </c>
+      <c r="CY78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -25880,6 +26111,9 @@
       <c r="CX79">
         <v>4885</v>
       </c>
+      <c r="CY79">
+        <v>4678</v>
+      </c>
       <c r="DA79">
         <v>5760</v>
       </c>
@@ -26194,8 +26428,11 @@
       <c r="CX80">
         <v>7</v>
       </c>
+      <c r="CY80">
+        <v>38</v>
+      </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -26502,8 +26739,11 @@
       <c r="CX81">
         <v>0</v>
       </c>
+      <c r="CY81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -26810,8 +27050,11 @@
       <c r="CX82">
         <v>459</v>
       </c>
+      <c r="CY82">
+        <v>283</v>
+      </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -27118,8 +27361,11 @@
       <c r="CX83">
         <v>0</v>
       </c>
+      <c r="CY83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -27426,8 +27672,11 @@
       <c r="CX84">
         <v>3</v>
       </c>
+      <c r="CY84">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -27734,8 +27983,11 @@
       <c r="CX85">
         <v>0</v>
       </c>
+      <c r="CY85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -28042,8 +28294,11 @@
       <c r="CX86">
         <v>0</v>
       </c>
+      <c r="CY86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -28350,8 +28605,11 @@
       <c r="CX87">
         <v>0</v>
       </c>
+      <c r="CY87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -28658,8 +28916,11 @@
       <c r="CX88">
         <v>0</v>
       </c>
+      <c r="CY88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>328</v>
       </c>
@@ -28966,8 +29227,11 @@
       <c r="CX89">
         <v>0</v>
       </c>
+      <c r="CY89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -29274,8 +29538,11 @@
       <c r="CX90">
         <v>0</v>
       </c>
+      <c r="CY90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -29582,8 +29849,11 @@
       <c r="CX91">
         <v>0</v>
       </c>
+      <c r="CY91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -29890,8 +30160,11 @@
       <c r="CX92">
         <v>0</v>
       </c>
+      <c r="CY92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -30198,8 +30471,11 @@
       <c r="CX93">
         <v>0</v>
       </c>
+      <c r="CY93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -30506,8 +30782,11 @@
       <c r="CX94">
         <v>0</v>
       </c>
+      <c r="CY94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -30814,8 +31093,11 @@
       <c r="CX95">
         <v>665</v>
       </c>
+      <c r="CY95">
+        <v>178</v>
+      </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -31120,6 +31402,9 @@
         <v>0</v>
       </c>
       <c r="CX96">
+        <v>0</v>
+      </c>
+      <c r="CY96">
         <v>0</v>
       </c>
     </row>
@@ -31430,6 +31715,9 @@
       <c r="CX97">
         <v>3887</v>
       </c>
+      <c r="CY97">
+        <v>10359</v>
+      </c>
     </row>
     <row r="98" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -31738,6 +32026,9 @@
       <c r="CX98">
         <v>17</v>
       </c>
+      <c r="CY98">
+        <v>39</v>
+      </c>
     </row>
     <row r="99" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -32046,6 +32337,9 @@
       <c r="CX99">
         <v>47</v>
       </c>
+      <c r="CY99">
+        <v>42</v>
+      </c>
     </row>
     <row r="100" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -32354,6 +32648,9 @@
       <c r="CX100">
         <v>0</v>
       </c>
+      <c r="CY100">
+        <v>-179</v>
+      </c>
     </row>
     <row r="101" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -32662,6 +32959,9 @@
       <c r="CX101">
         <v>6</v>
       </c>
+      <c r="CY101">
+        <v>96</v>
+      </c>
     </row>
     <row r="102" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -32970,6 +33270,9 @@
       <c r="CX102">
         <v>0</v>
       </c>
+      <c r="CY102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -33278,6 +33581,9 @@
       <c r="CX103">
         <v>454</v>
       </c>
+      <c r="CY103">
+        <v>1123</v>
+      </c>
       <c r="DA103">
         <v>935</v>
       </c>
@@ -33592,6 +33898,9 @@
       <c r="CX104">
         <v>785</v>
       </c>
+      <c r="CY104">
+        <v>1098</v>
+      </c>
       <c r="DA104">
         <v>944</v>
       </c>
@@ -33906,6 +34215,9 @@
       <c r="CX105">
         <v>0</v>
       </c>
+      <c r="CY105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -34214,6 +34526,9 @@
       <c r="CX106">
         <v>93</v>
       </c>
+      <c r="CY106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -34522,6 +34837,9 @@
       <c r="CX107">
         <v>8675</v>
       </c>
+      <c r="CY107">
+        <v>7191</v>
+      </c>
       <c r="DA107">
         <v>6545</v>
       </c>
@@ -34836,6 +35154,9 @@
       <c r="CX108">
         <v>1359</v>
       </c>
+      <c r="CY108">
+        <v>162</v>
+      </c>
     </row>
     <row r="109" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -35144,6 +35465,9 @@
       <c r="CX109">
         <v>0</v>
       </c>
+      <c r="CY109">
+        <v>1115</v>
+      </c>
     </row>
     <row r="110" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -35452,6 +35776,9 @@
       <c r="CX110">
         <v>0</v>
       </c>
+      <c r="CY110">
+        <v>41</v>
+      </c>
     </row>
     <row r="111" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -35760,6 +36087,9 @@
       <c r="CX111">
         <v>0</v>
       </c>
+      <c r="CY111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -36068,6 +36398,9 @@
       <c r="CX112">
         <v>0</v>
       </c>
+      <c r="CY112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -36376,6 +36709,9 @@
       <c r="CX113">
         <v>43</v>
       </c>
+      <c r="CY113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -36684,6 +37020,9 @@
       <c r="CX114">
         <v>0</v>
       </c>
+      <c r="CY114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -36992,6 +37331,9 @@
       <c r="CX115">
         <v>0</v>
       </c>
+      <c r="CY115">
+        <v>12</v>
+      </c>
     </row>
     <row r="116" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -37300,6 +37642,9 @@
       <c r="CX116">
         <v>4</v>
       </c>
+      <c r="CY116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -37608,6 +37953,9 @@
       <c r="CX117">
         <v>0</v>
       </c>
+      <c r="CY117">
+        <v>14</v>
+      </c>
     </row>
     <row r="118" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -37916,6 +38264,9 @@
       <c r="CX118">
         <v>0</v>
       </c>
+      <c r="CY118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -38224,6 +38575,9 @@
       <c r="CX119">
         <v>0</v>
       </c>
+      <c r="CY119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -38532,6 +38886,9 @@
       <c r="CX120">
         <v>0</v>
       </c>
+      <c r="CY120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
@@ -38840,6 +39197,9 @@
       <c r="CX121">
         <v>0</v>
       </c>
+      <c r="CY121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -39148,6 +39508,9 @@
       <c r="CX122">
         <v>72</v>
       </c>
+      <c r="CY122">
+        <v>190</v>
+      </c>
     </row>
     <row r="123" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -39456,6 +39819,9 @@
       <c r="CX123">
         <v>40</v>
       </c>
+      <c r="CY123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -39764,6 +40130,9 @@
       <c r="CX124">
         <v>94</v>
       </c>
+      <c r="CY124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -40072,6 +40441,9 @@
       <c r="CX125">
         <v>3</v>
       </c>
+      <c r="CY125">
+        <v>-4</v>
+      </c>
     </row>
     <row r="126" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
@@ -40380,6 +40752,9 @@
       <c r="CX126">
         <v>1</v>
       </c>
+      <c r="CY126">
+        <v>118</v>
+      </c>
     </row>
     <row r="127" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -40688,6 +41063,9 @@
       <c r="CX127">
         <v>543</v>
       </c>
+      <c r="CY127">
+        <v>294</v>
+      </c>
       <c r="DA127">
         <v>370</v>
       </c>
@@ -41002,6 +41380,9 @@
       <c r="CX128">
         <v>0</v>
       </c>
+      <c r="CY128">
+        <v>16</v>
+      </c>
     </row>
     <row r="129" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -41310,6 +41691,9 @@
       <c r="CX129">
         <v>70</v>
       </c>
+      <c r="CY129">
+        <v>30</v>
+      </c>
     </row>
     <row r="130" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -41618,6 +42002,9 @@
       <c r="CX130">
         <v>24</v>
       </c>
+      <c r="CY130">
+        <v>12</v>
+      </c>
     </row>
     <row r="131" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -41926,6 +42313,9 @@
       <c r="CX131">
         <v>0</v>
       </c>
+      <c r="CY131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -42234,6 +42624,9 @@
       <c r="CX132">
         <v>0</v>
       </c>
+      <c r="CY132">
+        <v>7</v>
+      </c>
     </row>
     <row r="133" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -42542,6 +42935,9 @@
       <c r="CX133">
         <v>88</v>
       </c>
+      <c r="CY133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -42850,6 +43246,9 @@
       <c r="CX134">
         <v>0</v>
       </c>
+      <c r="CY134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -43158,6 +43557,9 @@
       <c r="CX135">
         <v>0</v>
       </c>
+      <c r="CY135">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -43466,6 +43868,9 @@
       <c r="CX136">
         <v>1573</v>
       </c>
+      <c r="CY136">
+        <v>1396</v>
+      </c>
       <c r="DA136">
         <v>1625</v>
       </c>
@@ -43780,6 +44185,9 @@
       <c r="CX137">
         <v>0</v>
       </c>
+      <c r="CY137">
+        <v>2</v>
+      </c>
     </row>
     <row r="138" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -44088,6 +44496,9 @@
       <c r="CX138">
         <v>0</v>
       </c>
+      <c r="CY138">
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -44396,6 +44807,9 @@
       <c r="CX139">
         <v>0</v>
       </c>
+      <c r="CY139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -44704,6 +45118,9 @@
       <c r="CX140">
         <v>0</v>
       </c>
+      <c r="CY140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -45012,6 +45429,9 @@
       <c r="CX141">
         <v>1</v>
       </c>
+      <c r="CY141">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -45320,6 +45740,9 @@
       <c r="CX142">
         <v>0</v>
       </c>
+      <c r="CY142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -45628,6 +46051,9 @@
       <c r="CX143">
         <v>0</v>
       </c>
+      <c r="CY143">
+        <v>30</v>
+      </c>
       <c r="DA143">
         <v>493</v>
       </c>
@@ -45942,6 +46368,9 @@
       <c r="CX144">
         <v>0</v>
       </c>
+      <c r="CY144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
@@ -46250,6 +46679,9 @@
       <c r="CX145">
         <v>84</v>
       </c>
+      <c r="CY145">
+        <v>-4</v>
+      </c>
     </row>
     <row r="146" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -46558,6 +46990,9 @@
       <c r="CX146">
         <v>0</v>
       </c>
+      <c r="CY146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
@@ -46866,6 +47301,9 @@
       <c r="CX147">
         <v>2</v>
       </c>
+      <c r="CY147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -47174,6 +47612,9 @@
       <c r="CX148">
         <v>6</v>
       </c>
+      <c r="CY148">
+        <v>33</v>
+      </c>
     </row>
     <row r="149" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -47482,6 +47923,9 @@
       <c r="CX149">
         <v>3492</v>
       </c>
+      <c r="CY149">
+        <v>4036</v>
+      </c>
       <c r="DA149">
         <v>3632</v>
       </c>
@@ -47796,6 +48240,9 @@
       <c r="CX150">
         <v>18</v>
       </c>
+      <c r="CY150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
@@ -48104,6 +48551,9 @@
       <c r="CX151">
         <v>0</v>
       </c>
+      <c r="CY151">
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -48412,6 +48862,9 @@
       <c r="CX152">
         <v>0</v>
       </c>
+      <c r="CY152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
@@ -48720,6 +49173,9 @@
       <c r="CX153">
         <v>27</v>
       </c>
+      <c r="CY153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
@@ -49028,6 +49484,9 @@
       <c r="CX154">
         <v>0</v>
       </c>
+      <c r="CY154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
@@ -49336,6 +49795,9 @@
       <c r="CX155">
         <v>1</v>
       </c>
+      <c r="CY155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -49644,6 +50106,9 @@
       <c r="CX156">
         <v>0</v>
       </c>
+      <c r="CY156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -49952,6 +50417,9 @@
       <c r="CX157">
         <v>42</v>
       </c>
+      <c r="CY157">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -50260,6 +50728,9 @@
       <c r="CX158">
         <v>40</v>
       </c>
+      <c r="CY158">
+        <v>73</v>
+      </c>
       <c r="DA158">
         <v>45</v>
       </c>
@@ -50574,6 +51045,9 @@
       <c r="CX159">
         <v>100</v>
       </c>
+      <c r="CY159">
+        <v>29</v>
+      </c>
     </row>
     <row r="160" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
@@ -50882,6 +51356,9 @@
       <c r="CX160">
         <v>24</v>
       </c>
+      <c r="CY160">
+        <v>346</v>
+      </c>
     </row>
     <row r="161" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
@@ -51190,6 +51667,9 @@
       <c r="CX161">
         <v>0</v>
       </c>
+      <c r="CY161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
@@ -51498,6 +51978,9 @@
       <c r="CX162">
         <v>55</v>
       </c>
+      <c r="CY162">
+        <v>62</v>
+      </c>
     </row>
     <row r="163" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -51806,6 +52289,9 @@
       <c r="CX163">
         <v>198</v>
       </c>
+      <c r="CY163">
+        <v>267</v>
+      </c>
     </row>
     <row r="164" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -52114,6 +52600,9 @@
       <c r="CX164">
         <v>0</v>
       </c>
+      <c r="CY164">
+        <v>2</v>
+      </c>
     </row>
     <row r="165" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -52422,6 +52911,9 @@
       <c r="CX165">
         <v>0</v>
       </c>
+      <c r="CY165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -52730,6 +53222,9 @@
       <c r="CX166">
         <v>331</v>
       </c>
+      <c r="CY166">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
@@ -53038,6 +53533,9 @@
       <c r="CX167">
         <v>0</v>
       </c>
+      <c r="CY167">
+        <v>322</v>
+      </c>
     </row>
     <row r="168" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -53346,6 +53844,9 @@
       <c r="CX168">
         <v>2463</v>
       </c>
+      <c r="CY168">
+        <v>2311</v>
+      </c>
     </row>
     <row r="169" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -53654,6 +54155,9 @@
       <c r="CX169">
         <v>170</v>
       </c>
+      <c r="CY169">
+        <v>776</v>
+      </c>
       <c r="DA169">
         <v>571</v>
       </c>
@@ -53968,6 +54472,9 @@
       <c r="CX170">
         <v>0</v>
       </c>
+      <c r="CY170">
+        <v>326</v>
+      </c>
     </row>
     <row r="171" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -54276,6 +54783,9 @@
       <c r="CX171">
         <v>0</v>
       </c>
+      <c r="CY171">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
@@ -54584,6 +55094,9 @@
       <c r="CX172">
         <v>0</v>
       </c>
+      <c r="CY172">
+        <v>26</v>
+      </c>
     </row>
     <row r="173" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -54892,6 +55405,9 @@
       <c r="CX173">
         <v>16</v>
       </c>
+      <c r="CY173">
+        <v>11</v>
+      </c>
     </row>
     <row r="174" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
@@ -55200,6 +55716,9 @@
       <c r="CX174">
         <v>0</v>
       </c>
+      <c r="CY174">
+        <v>233</v>
+      </c>
     </row>
     <row r="175" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -55508,6 +56027,9 @@
       <c r="CX175">
         <v>0</v>
       </c>
+      <c r="CY175">
+        <v>7</v>
+      </c>
     </row>
     <row r="176" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -55816,8 +56338,11 @@
       <c r="CX176">
         <v>0</v>
       </c>
+      <c r="CY176">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -56124,8 +56649,11 @@
       <c r="CX177">
         <v>0</v>
       </c>
+      <c r="CY177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -56432,8 +56960,11 @@
       <c r="CX178">
         <v>0</v>
       </c>
+      <c r="CY178">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -56740,8 +57271,11 @@
       <c r="CX179">
         <v>0</v>
       </c>
+      <c r="CY179">
+        <v>1</v>
+      </c>
     </row>
-    <row r="180" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -57048,8 +57582,11 @@
       <c r="CX180">
         <v>2</v>
       </c>
+      <c r="CY180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -57356,8 +57893,11 @@
       <c r="CX181">
         <v>0</v>
       </c>
+      <c r="CY181">
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -57664,8 +58204,11 @@
       <c r="CX182">
         <v>0</v>
       </c>
+      <c r="CY182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>330</v>
       </c>
@@ -57972,8 +58515,11 @@
       <c r="CX183">
         <v>0</v>
       </c>
+      <c r="CY183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -58280,8 +58826,11 @@
       <c r="CX184">
         <v>0</v>
       </c>
+      <c r="CY184">
+        <v>30</v>
+      </c>
     </row>
-    <row r="185" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -58588,8 +59137,11 @@
       <c r="CX185">
         <v>0</v>
       </c>
+      <c r="CY185">
+        <v>83</v>
+      </c>
     </row>
-    <row r="186" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>110</v>
       </c>
@@ -58896,8 +59448,11 @@
       <c r="CX186">
         <v>6</v>
       </c>
+      <c r="CY186">
+        <v>23</v>
+      </c>
     </row>
-    <row r="187" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -59204,8 +59759,11 @@
       <c r="CX187">
         <v>0</v>
       </c>
+      <c r="CY187">
+        <v>5</v>
+      </c>
     </row>
-    <row r="188" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -59512,8 +60070,11 @@
       <c r="CX188">
         <v>0</v>
       </c>
+      <c r="CY188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -59820,8 +60381,11 @@
       <c r="CX189">
         <v>0</v>
       </c>
+      <c r="CY189">
+        <v>104</v>
+      </c>
     </row>
-    <row r="190" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -60128,8 +60692,11 @@
       <c r="CX190">
         <v>4</v>
       </c>
+      <c r="CY190">
+        <v>-58</v>
+      </c>
     </row>
-    <row r="191" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -60436,8 +61003,11 @@
       <c r="CX191">
         <v>58</v>
       </c>
+      <c r="CY191">
+        <v>100</v>
+      </c>
     </row>
-    <row r="192" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -60743,6 +61313,9 @@
       </c>
       <c r="CX192">
         <v>0</v>
+      </c>
+      <c r="CY192">
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:107" x14ac:dyDescent="0.3">
@@ -61052,6 +61625,9 @@
       <c r="CX193">
         <v>0</v>
       </c>
+      <c r="CY193">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -61360,6 +61936,9 @@
       <c r="CX194">
         <v>1300</v>
       </c>
+      <c r="CY194">
+        <v>231</v>
+      </c>
       <c r="DA194">
         <v>458</v>
       </c>
@@ -61674,6 +62253,9 @@
       <c r="CX195">
         <v>4658</v>
       </c>
+      <c r="CY195">
+        <v>3586</v>
+      </c>
       <c r="DA195">
         <v>4225</v>
       </c>
@@ -61988,6 +62570,9 @@
       <c r="CX196">
         <v>1</v>
       </c>
+      <c r="CY196">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -62296,6 +62881,9 @@
       <c r="CX197">
         <v>3528</v>
       </c>
+      <c r="CY197">
+        <v>1863</v>
+      </c>
       <c r="DA197">
         <v>4900</v>
       </c>
@@ -62610,6 +63198,9 @@
       <c r="CX198">
         <v>15</v>
       </c>
+      <c r="CY198">
+        <v>204</v>
+      </c>
     </row>
     <row r="199" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -62918,6 +63509,9 @@
       <c r="CX199">
         <v>19</v>
       </c>
+      <c r="CY199">
+        <v>117</v>
+      </c>
     </row>
     <row r="200" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
@@ -63226,6 +63820,9 @@
       <c r="CX200">
         <v>0</v>
       </c>
+      <c r="CY200">
+        <v>2</v>
+      </c>
     </row>
     <row r="201" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -63534,6 +64131,9 @@
       <c r="CX201">
         <v>0</v>
       </c>
+      <c r="CY201">
+        <v>10</v>
+      </c>
     </row>
     <row r="202" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
@@ -63842,6 +64442,9 @@
       <c r="CX202">
         <v>480</v>
       </c>
+      <c r="CY202">
+        <v>160</v>
+      </c>
       <c r="DA202">
         <v>599</v>
       </c>
@@ -64156,6 +64759,9 @@
       <c r="CX203">
         <v>475</v>
       </c>
+      <c r="CY203">
+        <v>331</v>
+      </c>
       <c r="DA203">
         <v>683</v>
       </c>
@@ -64470,6 +65076,9 @@
       <c r="CX204">
         <v>2</v>
       </c>
+      <c r="CY204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -64778,6 +65387,9 @@
       <c r="CX205">
         <v>0</v>
       </c>
+      <c r="CY205">
+        <v>1883</v>
+      </c>
     </row>
     <row r="206" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
@@ -65086,6 +65698,9 @@
       <c r="CX206">
         <v>0</v>
       </c>
+      <c r="CY206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
@@ -65394,6 +66009,9 @@
       <c r="CX207">
         <v>0</v>
       </c>
+      <c r="CY207">
+        <v>-2</v>
+      </c>
     </row>
     <row r="208" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
@@ -65702,6 +66320,9 @@
       <c r="CX208">
         <v>49</v>
       </c>
+      <c r="CY208">
+        <v>61</v>
+      </c>
       <c r="DA208">
         <v>500</v>
       </c>
@@ -66016,6 +66637,9 @@
       <c r="CX209">
         <v>0</v>
       </c>
+      <c r="CY209">
+        <v>53</v>
+      </c>
     </row>
     <row r="210" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
@@ -66324,6 +66948,9 @@
       <c r="CX210">
         <v>0</v>
       </c>
+      <c r="CY210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
@@ -66632,6 +67259,9 @@
       <c r="CX211">
         <v>0</v>
       </c>
+      <c r="CY211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
@@ -66940,6 +67570,9 @@
       <c r="CX212">
         <v>0</v>
       </c>
+      <c r="CY212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
@@ -67248,6 +67881,9 @@
       <c r="CX213">
         <v>95</v>
       </c>
+      <c r="CY213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
@@ -67556,6 +68192,9 @@
       <c r="CX214">
         <v>874</v>
       </c>
+      <c r="CY214">
+        <v>1149</v>
+      </c>
       <c r="DA214">
         <v>1492</v>
       </c>
@@ -67870,6 +68509,9 @@
       <c r="CX215">
         <v>0</v>
       </c>
+      <c r="CY215">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
@@ -68178,6 +68820,9 @@
       <c r="CX216">
         <v>1</v>
       </c>
+      <c r="CY216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
@@ -68486,6 +69131,9 @@
       <c r="CX217">
         <v>0</v>
       </c>
+      <c r="CY217">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
@@ -68794,6 +69442,9 @@
       <c r="CX218">
         <v>0</v>
       </c>
+      <c r="CY218">
+        <v>5</v>
+      </c>
     </row>
     <row r="219" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
@@ -69102,6 +69753,9 @@
       <c r="CX219">
         <v>82</v>
       </c>
+      <c r="CY219">
+        <v>10</v>
+      </c>
     </row>
     <row r="220" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
@@ -69410,6 +70064,9 @@
       <c r="CX220">
         <v>0</v>
       </c>
+      <c r="CY220">
+        <v>731</v>
+      </c>
     </row>
     <row r="221" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -69718,6 +70375,9 @@
       <c r="CX221">
         <v>0</v>
       </c>
+      <c r="CY221">
+        <v>166</v>
+      </c>
     </row>
     <row r="222" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
@@ -70026,6 +70686,9 @@
       <c r="CX222">
         <v>171.79999999999927</v>
       </c>
+      <c r="CY222">
+        <v>126</v>
+      </c>
     </row>
     <row r="223" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
@@ -70334,6 +70997,9 @@
       <c r="CX223">
         <v>19857</v>
       </c>
+      <c r="CY223">
+        <v>19899</v>
+      </c>
       <c r="DA223">
         <v>26873</v>
       </c>
@@ -70648,8 +71314,11 @@
       <c r="CX224">
         <v>0</v>
       </c>
+      <c r="CY224">
+        <v>2</v>
+      </c>
     </row>
-    <row r="225" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>218</v>
       </c>
@@ -70956,8 +71625,11 @@
       <c r="CX225">
         <v>0</v>
       </c>
+      <c r="CY225">
+        <v>100</v>
+      </c>
     </row>
-    <row r="226" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>219</v>
       </c>
@@ -71264,8 +71936,11 @@
       <c r="CX226">
         <v>0</v>
       </c>
+      <c r="CY226">
+        <v>1</v>
+      </c>
     </row>
-    <row r="227" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>220</v>
       </c>
@@ -71572,8 +72247,11 @@
       <c r="CX227">
         <v>5</v>
       </c>
+      <c r="CY227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>221</v>
       </c>
@@ -71880,8 +72558,11 @@
       <c r="CX228">
         <v>0</v>
       </c>
+      <c r="CY228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>222</v>
       </c>
@@ -72188,8 +72869,11 @@
       <c r="CX229">
         <v>11612</v>
       </c>
+      <c r="CY229">
+        <v>156</v>
+      </c>
     </row>
-    <row r="230" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>223</v>
       </c>
@@ -72496,8 +73180,11 @@
       <c r="CX230">
         <v>0</v>
       </c>
+      <c r="CY230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>224</v>
       </c>
@@ -72804,8 +73491,11 @@
       <c r="CX231">
         <v>99</v>
       </c>
+      <c r="CY231">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="232" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>225</v>
       </c>
@@ -73111,6 +73801,9 @@
       </c>
       <c r="CX232">
         <v>6</v>
+      </c>
+      <c r="CY232">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
